--- a/Code/Results/Cases/Case_4_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.17291215610954</v>
+        <v>18.21482920925333</v>
       </c>
       <c r="C2">
-        <v>16.1044652804586</v>
+        <v>16.87178653249114</v>
       </c>
       <c r="D2">
-        <v>12.09801931154829</v>
+        <v>15.38138818166248</v>
       </c>
       <c r="E2">
-        <v>13.09489068484551</v>
+        <v>16.84162632776718</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.143671108925488</v>
+        <v>3.782032829084129</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.84643611800749</v>
+        <v>36.65488141297421</v>
       </c>
       <c r="J2">
-        <v>5.949431889486434</v>
+        <v>9.654571020340018</v>
       </c>
       <c r="K2">
-        <v>17.2036133031102</v>
+        <v>19.97528673912249</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.24022158490559</v>
+        <v>25.21721950639624</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20087359463928</v>
+        <v>18.05593116864422</v>
       </c>
       <c r="C3">
-        <v>15.25976636650118</v>
+        <v>16.72386369035351</v>
       </c>
       <c r="D3">
-        <v>11.6097357872307</v>
+        <v>15.33660753858612</v>
       </c>
       <c r="E3">
-        <v>12.5774919945307</v>
+        <v>16.79827313350749</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.15495228149208</v>
+        <v>3.785915127842101</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.2664212900574</v>
+        <v>36.58803499910546</v>
       </c>
       <c r="J3">
-        <v>5.874829769309116</v>
+        <v>9.668366851138012</v>
       </c>
       <c r="K3">
-        <v>16.35293144502741</v>
+        <v>19.86367723556559</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.24723314482513</v>
+        <v>25.22639465723728</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.59030415105829</v>
+        <v>17.9631415513132</v>
       </c>
       <c r="C4">
-        <v>14.73393533938544</v>
+        <v>16.63710699999696</v>
       </c>
       <c r="D4">
-        <v>11.31082492289718</v>
+        <v>15.31270764385304</v>
       </c>
       <c r="E4">
-        <v>12.26149679532452</v>
+        <v>16.77560865704005</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.162026120519241</v>
+        <v>3.788420884580205</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.92431663707243</v>
+        <v>36.55258076001053</v>
       </c>
       <c r="J4">
-        <v>5.832655056912197</v>
+        <v>9.678372066819971</v>
       </c>
       <c r="K4">
-        <v>15.82448026726876</v>
+        <v>19.80020782177519</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.25751620805956</v>
+        <v>25.23377773216287</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.33825547415072</v>
+        <v>17.92656747170013</v>
       </c>
       <c r="C5">
-        <v>14.51803213732978</v>
+        <v>16.60280802469884</v>
       </c>
       <c r="D5">
-        <v>11.18935509221794</v>
+        <v>15.3038774589037</v>
       </c>
       <c r="E5">
-        <v>12.13326519081127</v>
+        <v>16.76737152795427</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.164948704318739</v>
+        <v>3.789472802370455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.78836841286131</v>
+        <v>36.53954215439561</v>
       </c>
       <c r="J5">
-        <v>5.816356585441418</v>
+        <v>9.682834785597349</v>
       </c>
       <c r="K5">
-        <v>15.60780782951149</v>
+        <v>19.77563543541691</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.26313765882518</v>
+        <v>25.23722579262691</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.29621509021501</v>
+        <v>17.92057022819341</v>
       </c>
       <c r="C6">
-        <v>14.48208993691203</v>
+        <v>16.59717732183994</v>
       </c>
       <c r="D6">
-        <v>11.16920925842357</v>
+        <v>15.30246625672595</v>
       </c>
       <c r="E6">
-        <v>12.11200869095578</v>
+        <v>16.76606419497199</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.165436490560607</v>
+        <v>3.789649336416142</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.76600158755828</v>
+        <v>36.53746231011901</v>
       </c>
       <c r="J6">
-        <v>5.813703147224017</v>
+        <v>9.683599089196223</v>
       </c>
       <c r="K6">
-        <v>15.57175686026053</v>
+        <v>19.77163377286753</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.26415551544996</v>
+        <v>25.23782486277911</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.58691770598749</v>
+        <v>17.96264323804917</v>
       </c>
       <c r="C7">
-        <v>14.73102988334387</v>
+        <v>16.6366401194423</v>
       </c>
       <c r="D7">
-        <v>11.30918520289225</v>
+        <v>15.31258486954207</v>
       </c>
       <c r="E7">
-        <v>12.25976507165104</v>
+        <v>16.77549351892898</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.162065370094034</v>
+        <v>3.788434946238032</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.92246925657289</v>
+        <v>36.55239920671188</v>
       </c>
       <c r="J7">
-        <v>5.832431687111779</v>
+        <v>9.678430692199157</v>
       </c>
       <c r="K7">
-        <v>15.82156318580655</v>
+        <v>19.79987117465119</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.25758631831873</v>
+        <v>25.23382245564324</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.84071397073891</v>
+        <v>18.15907373384744</v>
       </c>
       <c r="C8">
-        <v>15.81479732047109</v>
+        <v>16.81995818474225</v>
       </c>
       <c r="D8">
-        <v>11.92953442865785</v>
+        <v>15.36520488340018</v>
       </c>
       <c r="E8">
-        <v>12.91620290513997</v>
+        <v>16.82586033128991</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.147532159552058</v>
+        <v>3.783346195769147</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.64349489345858</v>
+        <v>36.63067511343252</v>
       </c>
       <c r="J8">
-        <v>5.922940140173798</v>
+        <v>9.65900913361428</v>
       </c>
       <c r="K8">
-        <v>16.91168466597481</v>
+        <v>19.93576618893931</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.24135330697525</v>
+        <v>25.22001967951944</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.18421050492569</v>
+        <v>18.58037328062182</v>
       </c>
       <c r="C9">
-        <v>17.87785663206881</v>
+        <v>17.21021877049724</v>
       </c>
       <c r="D9">
-        <v>13.14937658626458</v>
+        <v>15.49665650008066</v>
       </c>
       <c r="E9">
-        <v>14.21309280665566</v>
+        <v>16.95576907974403</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.120053545466182</v>
+        <v>3.774329728077898</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.17213028387291</v>
+        <v>36.82832875988306</v>
       </c>
       <c r="J9">
-        <v>6.130421241562649</v>
+        <v>9.633113982767945</v>
       </c>
       <c r="K9">
-        <v>18.99397289868001</v>
+        <v>20.24143693769108</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.26050869134589</v>
+        <v>25.20685845182338</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.88375918211525</v>
+        <v>18.90937579168101</v>
       </c>
       <c r="C10">
-        <v>19.35281726799229</v>
+        <v>17.51356072722907</v>
       </c>
       <c r="D10">
-        <v>14.04457103871161</v>
+        <v>15.61004829658843</v>
       </c>
       <c r="E10">
-        <v>15.1688086572498</v>
+        <v>17.06981528096042</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.100257974242894</v>
+        <v>3.768284377862504</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.37109828566826</v>
+        <v>37.00014894870006</v>
       </c>
       <c r="J10">
-        <v>6.302934026672956</v>
+        <v>9.621538890116522</v>
       </c>
       <c r="K10">
-        <v>20.48493126543104</v>
+        <v>20.48848220489884</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.31113720785147</v>
+        <v>25.20570131014714</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.70414139657099</v>
+        <v>19.06270335609913</v>
       </c>
       <c r="C11">
-        <v>20.01554219092912</v>
+        <v>17.65468174854854</v>
       </c>
       <c r="D11">
-        <v>14.45157779648832</v>
+        <v>15.66517619751905</v>
       </c>
       <c r="E11">
-        <v>15.60425780888854</v>
+        <v>17.12563554355376</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.091278447497207</v>
+        <v>3.765658268119881</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.93479780100538</v>
+        <v>37.08400469111787</v>
       </c>
       <c r="J11">
-        <v>6.386231420504493</v>
+        <v>9.617893627224552</v>
       </c>
       <c r="K11">
-        <v>21.15483261142238</v>
+        <v>20.60541114537334</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.34349434787156</v>
+        <v>25.20703023283323</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.01104932714684</v>
+        <v>19.12124156851994</v>
       </c>
       <c r="C12">
-        <v>20.26543910423911</v>
+        <v>17.70852838977692</v>
       </c>
       <c r="D12">
-        <v>14.6057122403735</v>
+        <v>15.68655095581659</v>
       </c>
       <c r="E12">
-        <v>15.76930223294244</v>
+        <v>17.14732966466502</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.087876076603392</v>
+        <v>3.764681524874727</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.15107748706887</v>
+        <v>37.11656830985655</v>
       </c>
       <c r="J12">
-        <v>6.418511886143328</v>
+        <v>9.616746358656043</v>
       </c>
       <c r="K12">
-        <v>21.41833477916968</v>
+        <v>20.65031230347618</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.3572205906121</v>
+        <v>25.20780069050338</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.94511399446836</v>
+        <v>19.10861393637639</v>
       </c>
       <c r="C13">
-        <v>20.21166396603003</v>
+        <v>17.69691413037727</v>
       </c>
       <c r="D13">
-        <v>14.57251511778892</v>
+        <v>15.6819255060585</v>
       </c>
       <c r="E13">
-        <v>15.73374907506638</v>
+        <v>17.14263288516664</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.088609027141266</v>
+        <v>3.764891098311321</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.10436889143911</v>
+        <v>37.10951932075757</v>
       </c>
       <c r="J13">
-        <v>6.411526120078078</v>
+        <v>9.616983074563231</v>
       </c>
       <c r="K13">
-        <v>21.35343069875098</v>
+        <v>20.64061484894227</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.35419659164777</v>
+        <v>25.20762286736669</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.72946463892709</v>
+        <v>19.06751007264634</v>
       </c>
       <c r="C14">
-        <v>20.03612173017812</v>
+        <v>17.65910383093165</v>
       </c>
       <c r="D14">
-        <v>14.46425795751749</v>
+        <v>15.66692477551486</v>
       </c>
       <c r="E14">
-        <v>15.61783268429765</v>
+        <v>17.12740924751523</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.090998608331098</v>
+        <v>3.765577556645996</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.95253351277772</v>
+        <v>37.0866675584701</v>
       </c>
       <c r="J14">
-        <v>6.388872091361502</v>
+        <v>9.617794568386262</v>
       </c>
       <c r="K14">
-        <v>21.17563234033772</v>
+        <v>20.60909289326363</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.34459327128555</v>
+        <v>25.20708826097592</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.59689199850538</v>
+        <v>19.04239330650104</v>
       </c>
       <c r="C15">
-        <v>19.92846336902581</v>
+        <v>17.63599567661734</v>
       </c>
       <c r="D15">
-        <v>14.3979504906848</v>
+        <v>15.65780104696983</v>
       </c>
       <c r="E15">
-        <v>15.54685219159603</v>
+        <v>17.11815644012267</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.092461850290105</v>
+        <v>3.766000334790057</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.85990348550953</v>
+        <v>37.07277528675528</v>
       </c>
       <c r="J15">
-        <v>6.375093339045333</v>
+        <v>9.61832199231222</v>
       </c>
       <c r="K15">
-        <v>21.06681990924448</v>
+        <v>20.58986493557549</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.33890702920323</v>
+        <v>25.20679561158915</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.82960661397456</v>
+        <v>18.89942489246456</v>
       </c>
       <c r="C16">
-        <v>19.30934983963013</v>
+        <v>17.50439745946949</v>
       </c>
       <c r="D16">
-        <v>14.01797043227157</v>
+        <v>15.60651599664892</v>
       </c>
       <c r="E16">
-        <v>15.14036824944761</v>
+        <v>17.06624571329687</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.100844852684871</v>
+        <v>3.768458484550566</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.33464230761757</v>
+        <v>36.99478256334266</v>
       </c>
       <c r="J16">
-        <v>6.297590976271318</v>
+        <v>9.621809732694862</v>
       </c>
       <c r="K16">
-        <v>20.44098908797675</v>
+        <v>20.48092948531387</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.30922119691573</v>
+        <v>25.20565183342427</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.35888521718058</v>
+        <v>18.81262093332167</v>
       </c>
       <c r="C17">
-        <v>18.92750037562531</v>
+        <v>17.42443743579524</v>
       </c>
       <c r="D17">
-        <v>13.78482604463335</v>
+        <v>15.57595492247249</v>
       </c>
       <c r="E17">
-        <v>14.89120286041412</v>
+        <v>17.03540221517571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.105990289046915</v>
+        <v>3.769998143544237</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.01721561990088</v>
+        <v>36.9483884324908</v>
       </c>
       <c r="J17">
-        <v>6.251309801536197</v>
+        <v>9.624364450720483</v>
       </c>
       <c r="K17">
-        <v>20.05496217108739</v>
+        <v>20.41524392289504</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.29348767448829</v>
+        <v>25.20542567311637</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.1130889382213</v>
+        <v>18.76304140374364</v>
       </c>
       <c r="C18">
-        <v>18.70708378426465</v>
+        <v>17.37874369517817</v>
       </c>
       <c r="D18">
-        <v>13.65070196434555</v>
+        <v>15.55871141300672</v>
       </c>
       <c r="E18">
-        <v>14.74794896588564</v>
+        <v>17.01803338939821</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.108952598860056</v>
+        <v>3.770895388411295</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.83634729996619</v>
+        <v>36.92224032019079</v>
       </c>
       <c r="J18">
-        <v>6.225140788830712</v>
+        <v>9.62598636505883</v>
       </c>
       <c r="K18">
-        <v>19.83213604338575</v>
+        <v>20.37789324023684</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.28530717964905</v>
+        <v>25.20547019938722</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.02960980626538</v>
+        <v>18.74631588536912</v>
       </c>
       <c r="C19">
-        <v>18.63231664439851</v>
+        <v>17.36332490962587</v>
       </c>
       <c r="D19">
-        <v>13.60528480105598</v>
+        <v>15.55293080800481</v>
       </c>
       <c r="E19">
-        <v>14.69945500746829</v>
+        <v>17.01221671690245</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.10995622660195</v>
+        <v>3.771201188632593</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.77539652535969</v>
+        <v>36.91347944804038</v>
       </c>
       <c r="J19">
-        <v>6.21635658043629</v>
+        <v>9.626561706170481</v>
       </c>
       <c r="K19">
-        <v>19.75655322285539</v>
+        <v>20.36532170680681</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.28268288473744</v>
+        <v>25.20551525035265</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.40425514093209</v>
+        <v>18.82182572808228</v>
       </c>
       <c r="C20">
-        <v>18.96822965215987</v>
+        <v>17.43291887112332</v>
       </c>
       <c r="D20">
-        <v>13.80964712981903</v>
+        <v>15.57917366623128</v>
       </c>
       <c r="E20">
-        <v>14.91772055660528</v>
+        <v>17.03864717770083</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.105442298524081</v>
+        <v>3.769833036872953</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.05082832025839</v>
+        <v>36.95327170036322</v>
       </c>
       <c r="J20">
-        <v>6.256189567838291</v>
+        <v>9.624076711571391</v>
       </c>
       <c r="K20">
-        <v>20.09613715862863</v>
+        <v>20.42219199002972</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.29507168824445</v>
+        <v>25.20543167377951</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.79290588666711</v>
+        <v>19.0795707484038</v>
       </c>
       <c r="C21">
-        <v>20.08771028915721</v>
+        <v>17.67019892574371</v>
       </c>
       <c r="D21">
-        <v>14.49605492010229</v>
+        <v>15.67131740070928</v>
       </c>
       <c r="E21">
-        <v>15.65187547835517</v>
+        <v>17.1318657909773</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.090296834568842</v>
+        <v>3.765375447541582</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.9970529957251</v>
+        <v>37.09335779206308</v>
       </c>
       <c r="J21">
-        <v>6.395505720962273</v>
+        <v>9.617549885760869</v>
       </c>
       <c r="K21">
-        <v>21.22777195656779</v>
+        <v>20.61833500968096</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.34737287919197</v>
+        <v>25.20723803222559</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.67950535261915</v>
+        <v>19.25077512385904</v>
       </c>
       <c r="C22">
-        <v>20.81326464720142</v>
+        <v>17.82762829194676</v>
       </c>
       <c r="D22">
-        <v>14.94476687304103</v>
+        <v>15.73444173400511</v>
       </c>
       <c r="E22">
-        <v>16.1326124557878</v>
+        <v>17.19602606400703</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.080383383896848</v>
+        <v>3.762565314435658</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.63201986059167</v>
+        <v>37.18962412268632</v>
       </c>
       <c r="J22">
-        <v>6.490882263780752</v>
+        <v>9.614642997016265</v>
       </c>
       <c r="K22">
-        <v>22.07642374251401</v>
+        <v>20.75014017326327</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.39021593305175</v>
+        <v>25.20997634522753</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.20821154133393</v>
+        <v>19.15916496808055</v>
       </c>
       <c r="C23">
-        <v>20.42652279560464</v>
+        <v>17.74340423527483</v>
       </c>
       <c r="D23">
-        <v>14.70524731125392</v>
+        <v>15.70048923931082</v>
       </c>
       <c r="E23">
-        <v>15.87592179092487</v>
+        <v>17.16149003395771</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.085677850457862</v>
+        <v>3.764055734651881</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.29153602678674</v>
+        <v>37.13781720618915</v>
       </c>
       <c r="J23">
-        <v>6.439565523386209</v>
+        <v>9.61607010994395</v>
       </c>
       <c r="K23">
-        <v>21.6124221225024</v>
+        <v>20.67947314605815</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.36650918355004</v>
+        <v>25.20837218971679</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.38374836454537</v>
+        <v>18.81766322356749</v>
       </c>
       <c r="C24">
-        <v>18.94981871514248</v>
+        <v>17.42908355022783</v>
       </c>
       <c r="D24">
-        <v>13.7984257885323</v>
+        <v>15.57771745452068</v>
       </c>
       <c r="E24">
-        <v>14.90573192616897</v>
+        <v>17.03717899710762</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.105690031756186</v>
+        <v>3.769907643981042</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.03562697216997</v>
+        <v>36.95106234057485</v>
       </c>
       <c r="J24">
-        <v>6.253982062440007</v>
+        <v>9.624206321350803</v>
       </c>
       <c r="K24">
-        <v>20.07752473686345</v>
+        <v>20.41904948068415</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.29435287141425</v>
+        <v>25.2054284172323</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.56318368503722</v>
+        <v>18.46279040953723</v>
       </c>
       <c r="C25">
-        <v>17.32690736092852</v>
+        <v>17.10156348839392</v>
       </c>
       <c r="D25">
-        <v>12.81944172304602</v>
+        <v>15.45810868568681</v>
       </c>
       <c r="E25">
-        <v>13.86163919961157</v>
+        <v>16.91732700269079</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.127400036565857</v>
+        <v>3.77666667593426</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.74577042679404</v>
+        <v>36.77015960462588</v>
       </c>
       <c r="J25">
-        <v>6.070906005069252</v>
+        <v>9.638812089434253</v>
       </c>
       <c r="K25">
-        <v>18.43732558224808</v>
+        <v>20.15468950237308</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.2493371435747</v>
+        <v>25.20892641474257</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.21482920925333</v>
+        <v>17.17291215610955</v>
       </c>
       <c r="C2">
-        <v>16.87178653249114</v>
+        <v>16.10446528045851</v>
       </c>
       <c r="D2">
-        <v>15.38138818166248</v>
+        <v>12.09801931154835</v>
       </c>
       <c r="E2">
-        <v>16.84162632776718</v>
+        <v>13.09489068484556</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.782032829084129</v>
+        <v>2.143671108925887</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.65488141297421</v>
+        <v>28.8464361180075</v>
       </c>
       <c r="J2">
-        <v>9.654571020340018</v>
+        <v>5.949431889486434</v>
       </c>
       <c r="K2">
-        <v>19.97528673912249</v>
+        <v>17.20361330311018</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.21721950639624</v>
+        <v>18.24022158490559</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.05593116864422</v>
+        <v>16.20087359463929</v>
       </c>
       <c r="C3">
-        <v>16.72386369035351</v>
+        <v>15.25976636650124</v>
       </c>
       <c r="D3">
-        <v>15.33660753858612</v>
+        <v>11.60973578723074</v>
       </c>
       <c r="E3">
-        <v>16.79827313350749</v>
+        <v>12.57749199453072</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.785915127842101</v>
+        <v>2.154952281492217</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.58803499910546</v>
+        <v>28.2664212900577</v>
       </c>
       <c r="J3">
-        <v>9.668366851138012</v>
+        <v>5.874829769309122</v>
       </c>
       <c r="K3">
-        <v>19.86367723556559</v>
+        <v>16.35293144502745</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>25.22639465723728</v>
+        <v>18.24723314482534</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.9631415513132</v>
+        <v>15.59030415105836</v>
       </c>
       <c r="C4">
-        <v>16.63710699999696</v>
+        <v>14.73393533938546</v>
       </c>
       <c r="D4">
-        <v>15.31270764385304</v>
+        <v>11.31082492289714</v>
       </c>
       <c r="E4">
-        <v>16.77560865704005</v>
+        <v>12.26149679532443</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.788420884580205</v>
+        <v>2.162026120519116</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.55258076001053</v>
+        <v>27.92431663707265</v>
       </c>
       <c r="J4">
-        <v>9.678372066819971</v>
+        <v>5.832655056912152</v>
       </c>
       <c r="K4">
-        <v>19.80020782177519</v>
+        <v>15.82448026726885</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>25.23377773216287</v>
+        <v>18.25751620805971</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.92656747170013</v>
+        <v>15.33825547415068</v>
       </c>
       <c r="C5">
-        <v>16.60280802469884</v>
+        <v>14.51803213732972</v>
       </c>
       <c r="D5">
-        <v>15.3038774589037</v>
+        <v>11.189355092218</v>
       </c>
       <c r="E5">
-        <v>16.76737152795427</v>
+        <v>12.13326519081119</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.789472802370455</v>
+        <v>2.164948704318344</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.53954215439561</v>
+        <v>27.78836841286115</v>
       </c>
       <c r="J5">
-        <v>9.682834785597349</v>
+        <v>5.816356585441316</v>
       </c>
       <c r="K5">
-        <v>19.77563543541691</v>
+        <v>15.60780782951142</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>25.23722579262691</v>
+        <v>18.26313765882511</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.92057022819341</v>
+        <v>15.29621509021501</v>
       </c>
       <c r="C6">
-        <v>16.59717732183994</v>
+        <v>14.482089936912</v>
       </c>
       <c r="D6">
-        <v>15.30246625672595</v>
+        <v>11.16920925842354</v>
       </c>
       <c r="E6">
-        <v>16.76606419497199</v>
+        <v>12.11200869095574</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.789649336416142</v>
+        <v>2.165436490560875</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.53746231011901</v>
+        <v>27.76600158755825</v>
       </c>
       <c r="J6">
-        <v>9.683599089196223</v>
+        <v>5.81370314722397</v>
       </c>
       <c r="K6">
-        <v>19.77163377286753</v>
+        <v>15.57175686026053</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>25.23782486277911</v>
+        <v>18.2641555154499</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.96264323804917</v>
+        <v>15.58691770598753</v>
       </c>
       <c r="C7">
-        <v>16.6366401194423</v>
+        <v>14.73102988334389</v>
       </c>
       <c r="D7">
-        <v>15.31258486954207</v>
+        <v>11.30918520289222</v>
       </c>
       <c r="E7">
-        <v>16.77549351892898</v>
+        <v>12.25976507165099</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.788434946238032</v>
+        <v>2.162065370094038</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.55239920671188</v>
+        <v>27.92246925657305</v>
       </c>
       <c r="J7">
-        <v>9.678430692199157</v>
+        <v>5.832431687111788</v>
       </c>
       <c r="K7">
-        <v>19.79987117465119</v>
+        <v>15.82156318580659</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>25.23382245564324</v>
+        <v>18.25758631831881</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.15907373384744</v>
+        <v>16.84071397073893</v>
       </c>
       <c r="C8">
-        <v>16.81995818474225</v>
+        <v>15.81479732047116</v>
       </c>
       <c r="D8">
-        <v>15.36520488340018</v>
+        <v>11.92953442865777</v>
       </c>
       <c r="E8">
-        <v>16.82586033128991</v>
+        <v>12.9162029051399</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.783346195769147</v>
+        <v>2.147532159552056</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.63067511343252</v>
+        <v>28.64349489345859</v>
       </c>
       <c r="J8">
-        <v>9.65900913361428</v>
+        <v>5.922940140173816</v>
       </c>
       <c r="K8">
-        <v>19.93576618893931</v>
+        <v>16.91168466597484</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.22001967951944</v>
+        <v>18.24135330697525</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.58037328062182</v>
+        <v>19.18421050492573</v>
       </c>
       <c r="C9">
-        <v>17.21021877049724</v>
+        <v>17.87785663206882</v>
       </c>
       <c r="D9">
-        <v>15.49665650008066</v>
+        <v>13.14937658626462</v>
       </c>
       <c r="E9">
-        <v>16.95576907974403</v>
+        <v>14.21309280665565</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.774329728077898</v>
+        <v>2.120053545466188</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.82832875988306</v>
+        <v>30.17213028387296</v>
       </c>
       <c r="J9">
-        <v>9.633113982767945</v>
+        <v>6.130421241562592</v>
       </c>
       <c r="K9">
-        <v>20.24143693769108</v>
+        <v>18.99397289868004</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.20685845182338</v>
+        <v>18.26050869134588</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.90937579168101</v>
+        <v>20.88375918211518</v>
       </c>
       <c r="C10">
-        <v>17.51356072722907</v>
+        <v>19.35281726799226</v>
       </c>
       <c r="D10">
-        <v>15.61004829658843</v>
+        <v>14.04457103871163</v>
       </c>
       <c r="E10">
-        <v>17.06981528096042</v>
+        <v>15.16880865724979</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.768284377862504</v>
+        <v>2.100257974243024</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.00014894870006</v>
+        <v>31.37109828566832</v>
       </c>
       <c r="J10">
-        <v>9.621538890116522</v>
+        <v>6.302934026672926</v>
       </c>
       <c r="K10">
-        <v>20.48848220489884</v>
+        <v>20.48493126543102</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.20570131014714</v>
+        <v>18.31113720785148</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.06270335609913</v>
+        <v>21.70414139657102</v>
       </c>
       <c r="C11">
-        <v>17.65468174854854</v>
+        <v>20.01554219092908</v>
       </c>
       <c r="D11">
-        <v>15.66517619751905</v>
+        <v>14.45157779648831</v>
       </c>
       <c r="E11">
-        <v>17.12563554355376</v>
+        <v>15.60425780888856</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.765658268119881</v>
+        <v>2.091278447497475</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.08400469111787</v>
+        <v>31.93479780100537</v>
       </c>
       <c r="J11">
-        <v>9.617893627224552</v>
+        <v>6.386231420504498</v>
       </c>
       <c r="K11">
-        <v>20.60541114537334</v>
+        <v>21.15483261142237</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.20703023283323</v>
+        <v>18.3434943478716</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.12124156851994</v>
+        <v>22.01104932714677</v>
       </c>
       <c r="C12">
-        <v>17.70852838977692</v>
+        <v>20.26543910423904</v>
       </c>
       <c r="D12">
-        <v>15.68655095581659</v>
+        <v>14.60571224037355</v>
       </c>
       <c r="E12">
-        <v>17.14732966466502</v>
+        <v>15.76930223294244</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.764681524874727</v>
+        <v>2.087876076603138</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.11656830985655</v>
+        <v>32.15107748706889</v>
       </c>
       <c r="J12">
-        <v>9.616746358656043</v>
+        <v>6.418511886143268</v>
       </c>
       <c r="K12">
-        <v>20.65031230347618</v>
+        <v>21.41833477916959</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.20780069050338</v>
+        <v>18.35722059061213</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10861393637639</v>
+        <v>21.94511399446828</v>
       </c>
       <c r="C13">
-        <v>17.69691413037727</v>
+        <v>20.21166396603002</v>
       </c>
       <c r="D13">
-        <v>15.6819255060585</v>
+        <v>14.57251511778887</v>
       </c>
       <c r="E13">
-        <v>17.14263288516664</v>
+        <v>15.73374907506633</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.764891098311321</v>
+        <v>2.088609027141001</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.10951932075757</v>
+        <v>32.10436889143918</v>
       </c>
       <c r="J13">
-        <v>9.616983074563231</v>
+        <v>6.411526120078094</v>
       </c>
       <c r="K13">
-        <v>20.64061484894227</v>
+        <v>21.35343069875091</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.20762286736669</v>
+        <v>18.35419659164781</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.06751007264634</v>
+        <v>21.72946463892703</v>
       </c>
       <c r="C14">
-        <v>17.65910383093165</v>
+        <v>20.03612173017813</v>
       </c>
       <c r="D14">
-        <v>15.66692477551486</v>
+        <v>14.4642579575175</v>
       </c>
       <c r="E14">
-        <v>17.12740924751523</v>
+        <v>15.61783268429763</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.765577556645996</v>
+        <v>2.090998608331357</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.0866675584701</v>
+        <v>31.95253351277774</v>
       </c>
       <c r="J14">
-        <v>9.617794568386262</v>
+        <v>6.38887209136148</v>
       </c>
       <c r="K14">
-        <v>20.60909289326363</v>
+        <v>21.17563234033772</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.20708826097592</v>
+        <v>18.34459327128559</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.04239330650104</v>
+        <v>21.59689199850548</v>
       </c>
       <c r="C15">
-        <v>17.63599567661734</v>
+        <v>19.92846336902586</v>
       </c>
       <c r="D15">
-        <v>15.65780104696983</v>
+        <v>14.39795049068483</v>
       </c>
       <c r="E15">
-        <v>17.11815644012267</v>
+        <v>15.54685219159609</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.766000334790057</v>
+        <v>2.092461850289702</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.07277528675528</v>
+        <v>31.85990348550961</v>
       </c>
       <c r="J15">
-        <v>9.61832199231222</v>
+        <v>6.375093339045389</v>
       </c>
       <c r="K15">
-        <v>20.58986493557549</v>
+        <v>21.06681990924455</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.20679561158915</v>
+        <v>18.33890702920323</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.89942489246456</v>
+        <v>20.8296066139745</v>
       </c>
       <c r="C16">
-        <v>17.50439745946949</v>
+        <v>19.30934983963004</v>
       </c>
       <c r="D16">
-        <v>15.60651599664892</v>
+        <v>14.01797043227151</v>
       </c>
       <c r="E16">
-        <v>17.06624571329687</v>
+        <v>15.14036824944761</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.768458484550566</v>
+        <v>2.100844852684866</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>36.99478256334266</v>
+        <v>31.33464230761755</v>
       </c>
       <c r="J16">
-        <v>9.621809732694862</v>
+        <v>6.297590976271347</v>
       </c>
       <c r="K16">
-        <v>20.48092948531387</v>
+        <v>20.44098908797672</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.20565183342427</v>
+        <v>18.30922119691571</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.81262093332167</v>
+        <v>20.35888521718059</v>
       </c>
       <c r="C17">
-        <v>17.42443743579524</v>
+        <v>18.92750037562534</v>
       </c>
       <c r="D17">
-        <v>15.57595492247249</v>
+        <v>13.78482604463327</v>
       </c>
       <c r="E17">
-        <v>17.03540221517571</v>
+        <v>14.8912028604141</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.769998143544237</v>
+        <v>2.10599028904692</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.9483884324908</v>
+        <v>31.01721561990085</v>
       </c>
       <c r="J17">
-        <v>9.624364450720483</v>
+        <v>6.251309801536202</v>
       </c>
       <c r="K17">
-        <v>20.41524392289504</v>
+        <v>20.0549621710874</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.20542567311637</v>
+        <v>18.29348767448823</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.76304140374364</v>
+        <v>20.11308893822133</v>
       </c>
       <c r="C18">
-        <v>17.37874369517817</v>
+        <v>18.70708378426463</v>
       </c>
       <c r="D18">
-        <v>15.55871141300672</v>
+        <v>13.65070196434552</v>
       </c>
       <c r="E18">
-        <v>17.01803338939821</v>
+        <v>14.74794896588561</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.770895388411295</v>
+        <v>2.108952598860188</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.92224032019079</v>
+        <v>30.83634729996637</v>
       </c>
       <c r="J18">
-        <v>9.62598636505883</v>
+        <v>6.22514078883073</v>
       </c>
       <c r="K18">
-        <v>20.37789324023684</v>
+        <v>19.83213604338577</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.20547019938722</v>
+        <v>18.28530717964914</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.74631588536912</v>
+        <v>20.02960980626539</v>
       </c>
       <c r="C19">
-        <v>17.36332490962587</v>
+        <v>18.63231664439851</v>
       </c>
       <c r="D19">
-        <v>15.55293080800481</v>
+        <v>13.605284801056</v>
       </c>
       <c r="E19">
-        <v>17.01221671690245</v>
+        <v>14.69945500746831</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.771201188632593</v>
+        <v>2.109956226602341</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.91347944804038</v>
+        <v>30.77539652535966</v>
       </c>
       <c r="J19">
-        <v>9.626561706170481</v>
+        <v>6.216356580436306</v>
       </c>
       <c r="K19">
-        <v>20.36532170680681</v>
+        <v>19.7565532228554</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.20551525035265</v>
+        <v>18.28268288473741</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.82182572808228</v>
+        <v>20.40425514093209</v>
       </c>
       <c r="C20">
-        <v>17.43291887112332</v>
+        <v>18.96822965215989</v>
       </c>
       <c r="D20">
-        <v>15.57917366623128</v>
+        <v>13.80964712981906</v>
       </c>
       <c r="E20">
-        <v>17.03864717770083</v>
+        <v>14.91772055660526</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.769833036872953</v>
+        <v>2.105442298523948</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.95327170036322</v>
+        <v>31.05082832025835</v>
       </c>
       <c r="J20">
-        <v>9.624076711571391</v>
+        <v>6.25618956783823</v>
       </c>
       <c r="K20">
-        <v>20.42219199002972</v>
+        <v>20.09613715862863</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.20543167377951</v>
+        <v>18.29507168824446</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.0795707484038</v>
+        <v>21.79290588666716</v>
       </c>
       <c r="C21">
-        <v>17.67019892574371</v>
+        <v>20.08771028915717</v>
       </c>
       <c r="D21">
-        <v>15.67131740070928</v>
+        <v>14.49605492010226</v>
       </c>
       <c r="E21">
-        <v>17.1318657909773</v>
+        <v>15.65187547835515</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.765375447541582</v>
+        <v>2.090296834568977</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.09335779206308</v>
+        <v>31.9970529957252</v>
       </c>
       <c r="J21">
-        <v>9.617549885760869</v>
+        <v>6.395505720962219</v>
       </c>
       <c r="K21">
-        <v>20.61833500968096</v>
+        <v>21.22777195656781</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.20723803222559</v>
+        <v>18.34737287919208</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.25077512385904</v>
+        <v>22.67950535261906</v>
       </c>
       <c r="C22">
-        <v>17.82762829194676</v>
+        <v>20.81326464720143</v>
       </c>
       <c r="D22">
-        <v>15.73444173400511</v>
+        <v>14.944766873041</v>
       </c>
       <c r="E22">
-        <v>17.19602606400703</v>
+        <v>16.13261245578776</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.762565314435658</v>
+        <v>2.080383383896986</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.18962412268632</v>
+        <v>32.63201986059167</v>
       </c>
       <c r="J22">
-        <v>9.614642997016265</v>
+        <v>6.490882263780723</v>
       </c>
       <c r="K22">
-        <v>20.75014017326327</v>
+        <v>22.07642374251394</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.20997634522753</v>
+        <v>18.39021593305182</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.15916496808055</v>
+        <v>22.20821154133412</v>
       </c>
       <c r="C23">
-        <v>17.74340423527483</v>
+        <v>20.4265227956047</v>
       </c>
       <c r="D23">
-        <v>15.70048923931082</v>
+        <v>14.70524731125394</v>
       </c>
       <c r="E23">
-        <v>17.16149003395771</v>
+        <v>15.87592179092487</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.764055734651881</v>
+        <v>2.085677850457988</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.13781720618915</v>
+        <v>32.29153602678674</v>
       </c>
       <c r="J23">
-        <v>9.61607010994395</v>
+        <v>6.439565523386158</v>
       </c>
       <c r="K23">
-        <v>20.67947314605815</v>
+        <v>21.61242212250258</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.20837218971679</v>
+        <v>18.36650918354998</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.81766322356749</v>
+        <v>20.38374836454533</v>
       </c>
       <c r="C24">
-        <v>17.42908355022783</v>
+        <v>18.94981871514252</v>
       </c>
       <c r="D24">
-        <v>15.57771745452068</v>
+        <v>13.79842578853232</v>
       </c>
       <c r="E24">
-        <v>17.03717899710762</v>
+        <v>14.90573192616901</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.769907643981042</v>
+        <v>2.105690031756323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.95106234057485</v>
+        <v>31.03562697216993</v>
       </c>
       <c r="J24">
-        <v>9.624206321350803</v>
+        <v>6.253982062440016</v>
       </c>
       <c r="K24">
-        <v>20.41904948068415</v>
+        <v>20.07752473686343</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.2054284172323</v>
+        <v>18.2943528714142</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.46279040953723</v>
+        <v>18.56318368503725</v>
       </c>
       <c r="C25">
-        <v>17.10156348839392</v>
+        <v>17.32690736092856</v>
       </c>
       <c r="D25">
-        <v>15.45810868568681</v>
+        <v>12.81944172304599</v>
       </c>
       <c r="E25">
-        <v>16.91732700269079</v>
+        <v>13.86163919961159</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.77666667593426</v>
+        <v>2.127400036565867</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.77015960462588</v>
+        <v>29.74577042679412</v>
       </c>
       <c r="J25">
-        <v>9.638812089434253</v>
+        <v>6.070906005069311</v>
       </c>
       <c r="K25">
-        <v>20.15468950237308</v>
+        <v>18.43732558224811</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.20892641474257</v>
+        <v>18.24933714357479</v>
       </c>
       <c r="O25">
         <v>0</v>
